--- a/Report Headings.xlsx
+++ b/Report Headings.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D-wave\ZAMWIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frikan/Documents/Side-projects/ZamWISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195"/>
+    <workbookView xWindow="-29560" yWindow="2160" windowWidth="20500" windowHeight="9200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Excel Column</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>ColumnK</t>
+  </si>
+  <si>
+    <t>Excel Column Name</t>
   </si>
 </sst>
 </file>
@@ -444,27 +447,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -472,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -480,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -488,7 +495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -496,7 +503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -504,7 +511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -512,7 +519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -520,7 +527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -528,7 +535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
